--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H2">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I2">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J2">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N2">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O2">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P2">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q2">
-        <v>198.6914547232476</v>
+        <v>99.48766078903667</v>
       </c>
       <c r="R2">
-        <v>1788.223092509228</v>
+        <v>895.3889471013299</v>
       </c>
       <c r="S2">
-        <v>0.01133593687959245</v>
+        <v>0.004846213817971173</v>
       </c>
       <c r="T2">
-        <v>0.01194690229888421</v>
+        <v>0.004908703807561829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H3">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I3">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J3">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.307568</v>
       </c>
       <c r="O3">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P3">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q3">
-        <v>34.17926713393422</v>
+        <v>24.20984985681422</v>
       </c>
       <c r="R3">
-        <v>307.613404205408</v>
+        <v>217.888648711328</v>
       </c>
       <c r="S3">
-        <v>0.00195002857752832</v>
+        <v>0.001179303121377939</v>
       </c>
       <c r="T3">
-        <v>0.002055127965444403</v>
+        <v>0.001194509763624274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H4">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I4">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J4">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N4">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O4">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P4">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q4">
-        <v>657.6235934124061</v>
+        <v>436.3536509575815</v>
       </c>
       <c r="R4">
-        <v>5918.612340711655</v>
+        <v>3927.182858618233</v>
       </c>
       <c r="S4">
-        <v>0.0375193767433903</v>
+        <v>0.02125553134953026</v>
       </c>
       <c r="T4">
-        <v>0.03954153353440584</v>
+        <v>0.02152961292798857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H5">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I5">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J5">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N5">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O5">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P5">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q5">
-        <v>192.020867768792</v>
+        <v>27.596624195911</v>
       </c>
       <c r="R5">
-        <v>1152.125206612752</v>
+        <v>165.579745175466</v>
       </c>
       <c r="S5">
-        <v>0.01095536010657084</v>
+        <v>0.001344278681867644</v>
       </c>
       <c r="T5">
-        <v>0.00769720922246356</v>
+        <v>0.0009077417453377897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H6">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I6">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J6">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N6">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O6">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P6">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q6">
-        <v>665.6724098595416</v>
+        <v>785.1623404720901</v>
       </c>
       <c r="R6">
-        <v>5991.051688735874</v>
+        <v>7066.461064248811</v>
       </c>
       <c r="S6">
-        <v>0.03797858559727504</v>
+        <v>0.03824659815668056</v>
       </c>
       <c r="T6">
-        <v>0.04002549206120568</v>
+        <v>0.0387397727483228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J7">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N7">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O7">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P7">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q7">
-        <v>1309.941378806662</v>
+        <v>926.0033150815517</v>
       </c>
       <c r="R7">
-        <v>11789.47240925996</v>
+        <v>8334.029835733965</v>
       </c>
       <c r="S7">
-        <v>0.07473604140048196</v>
+        <v>0.04510720249570744</v>
       </c>
       <c r="T7">
-        <v>0.0787640399113641</v>
+        <v>0.04568884183732452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>382.104683</v>
       </c>
       <c r="I8">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J8">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.307568</v>
       </c>
       <c r="O8">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P8">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q8">
         <v>225.3385097934382</v>
@@ -948,10 +948,10 @@
         <v>2028.046588140944</v>
       </c>
       <c r="S8">
-        <v>0.01285623041573596</v>
+        <v>0.01097662354528224</v>
       </c>
       <c r="T8">
-        <v>0.01354913408041693</v>
+        <v>0.01111816271727288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>382.104683</v>
       </c>
       <c r="I9">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J9">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N9">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O9">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P9">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q9">
-        <v>4335.608483466634</v>
+        <v>4061.457713750828</v>
       </c>
       <c r="R9">
-        <v>39020.47635119971</v>
+        <v>36553.11942375746</v>
       </c>
       <c r="S9">
-        <v>0.2473593248972916</v>
+        <v>0.1978405395943721</v>
       </c>
       <c r="T9">
-        <v>0.2606910852323082</v>
+        <v>0.2003916142526995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>382.104683</v>
       </c>
       <c r="I10">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J10">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N10">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O10">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P10">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q10">
-        <v>1265.963252597156</v>
+        <v>256.8616578960655</v>
       </c>
       <c r="R10">
-        <v>7595.779515582937</v>
+        <v>1541.169947376393</v>
       </c>
       <c r="S10">
-        <v>0.07222695884588441</v>
+        <v>0.01251216991062345</v>
       </c>
       <c r="T10">
-        <v>0.0507464846733418</v>
+        <v>0.008449006226039807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>382.104683</v>
       </c>
       <c r="I11">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J11">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N11">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O11">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P11">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q11">
-        <v>4388.673059037879</v>
+        <v>7308.071416977837</v>
       </c>
       <c r="R11">
-        <v>39498.05753134091</v>
+        <v>65772.64275280053</v>
       </c>
       <c r="S11">
-        <v>0.2503868163415304</v>
+        <v>0.3559886362066418</v>
       </c>
       <c r="T11">
-        <v>0.2638817473610064</v>
+        <v>0.3605789673407018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H12">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I12">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J12">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N12">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O12">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P12">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q12">
-        <v>191.8891712404073</v>
+        <v>127.58104048151</v>
       </c>
       <c r="R12">
-        <v>1727.002541163666</v>
+        <v>1148.22936433359</v>
       </c>
       <c r="S12">
-        <v>0.01094784642896901</v>
+        <v>0.006214690308215258</v>
       </c>
       <c r="T12">
-        <v>0.01153789519642981</v>
+        <v>0.006294826255009307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H13">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I13">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J13">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.307568</v>
       </c>
       <c r="O13">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P13">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q13">
-        <v>33.00912589859733</v>
+        <v>31.04624040948267</v>
       </c>
       <c r="R13">
-        <v>297.082133087376</v>
+        <v>279.416163685344</v>
       </c>
       <c r="S13">
-        <v>0.001883268549008405</v>
+        <v>0.001512315377356524</v>
       </c>
       <c r="T13">
-        <v>0.001984769816253048</v>
+        <v>0.001531816079500196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H14">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I14">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J14">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N14">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O14">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P14">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q14">
-        <v>635.109579844857</v>
+        <v>559.5714319298646</v>
       </c>
       <c r="R14">
-        <v>5715.986218603713</v>
+        <v>5036.142887368782</v>
       </c>
       <c r="S14">
-        <v>0.03623488548500423</v>
+        <v>0.02725767983741015</v>
       </c>
       <c r="T14">
-        <v>0.03818781290851426</v>
+        <v>0.02760915672086683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H15">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I15">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J15">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N15">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O15">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P15">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q15">
-        <v>185.446954567524</v>
+        <v>35.389373926053</v>
       </c>
       <c r="R15">
-        <v>1112.681727405144</v>
+        <v>212.336243556318</v>
       </c>
       <c r="S15">
-        <v>0.01058029885793641</v>
+        <v>0.001723876826227341</v>
       </c>
       <c r="T15">
-        <v>0.00743369210628532</v>
+        <v>0.00116407035244575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H16">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I16">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J16">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N16">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O16">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P16">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q16">
-        <v>642.8828417582004</v>
+        <v>1006.876908652431</v>
       </c>
       <c r="R16">
-        <v>5785.945575823803</v>
+        <v>9061.892177871876</v>
       </c>
       <c r="S16">
-        <v>0.03667837313534599</v>
+        <v>0.04904669331862734</v>
       </c>
       <c r="T16">
-        <v>0.03865520291656317</v>
+        <v>0.04967913081933593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H17">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I17">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J17">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N17">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O17">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P17">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q17">
-        <v>90.11600586736002</v>
+        <v>27.093247783305</v>
       </c>
       <c r="R17">
-        <v>540.69603520416</v>
+        <v>162.55948669983</v>
       </c>
       <c r="S17">
-        <v>0.005141385449999682</v>
+        <v>0.001319758357366449</v>
       </c>
       <c r="T17">
-        <v>0.003612324845282035</v>
+        <v>0.0008911840758164376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H18">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I18">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J18">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.307568</v>
       </c>
       <c r="O18">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P18">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q18">
-        <v>15.50192000896</v>
+        <v>6.593013201488</v>
       </c>
       <c r="R18">
-        <v>93.01152005375999</v>
+        <v>39.55807920892799</v>
       </c>
       <c r="S18">
-        <v>0.0008844305205718587</v>
+        <v>0.0003211569296706035</v>
       </c>
       <c r="T18">
-        <v>0.0006213987211146845</v>
+        <v>0.0002168654132500949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H19">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I19">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J19">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N19">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O19">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P19">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q19">
-        <v>298.26351457848</v>
+        <v>118.831194670589</v>
       </c>
       <c r="R19">
-        <v>1789.58108747088</v>
+        <v>712.9871680235339</v>
       </c>
       <c r="S19">
-        <v>0.01701681825952957</v>
+        <v>0.005788470379656284</v>
       </c>
       <c r="T19">
-        <v>0.01195597489905205</v>
+        <v>0.003908740260587306</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H20">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I20">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J20">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N20">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O20">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P20">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q20">
-        <v>87.09057805536</v>
+        <v>7.515325733791499</v>
       </c>
       <c r="R20">
-        <v>348.36231222144</v>
+        <v>30.061302935166</v>
       </c>
       <c r="S20">
-        <v>0.004968775818858948</v>
+        <v>0.0003660843478357088</v>
       </c>
       <c r="T20">
-        <v>0.002327366493675601</v>
+        <v>0.0001648021596154677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H21">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I21">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J21">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N21">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O21">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P21">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q21">
-        <v>301.91403488488</v>
+        <v>213.821469635702</v>
       </c>
       <c r="R21">
-        <v>1811.48420930928</v>
+        <v>1282.928817814212</v>
       </c>
       <c r="S21">
-        <v>0.01722509127171653</v>
+        <v>0.01041560885550173</v>
       </c>
       <c r="T21">
-        <v>0.01210230700813848</v>
+        <v>0.00703327597824673</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H22">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I22">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J22">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N22">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O22">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P22">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q22">
-        <v>201.470203667792</v>
+        <v>307.5690967261734</v>
       </c>
       <c r="R22">
-        <v>1813.231833010128</v>
+        <v>2768.12187053556</v>
       </c>
       <c r="S22">
-        <v>0.01149447274960994</v>
+        <v>0.01498221583173004</v>
       </c>
       <c r="T22">
-        <v>0.01211398267080982</v>
+        <v>0.01517540551475598</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H23">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I23">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J23">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.307568</v>
       </c>
       <c r="O23">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P23">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q23">
-        <v>34.657272605312</v>
+        <v>74.84547926125511</v>
       </c>
       <c r="R23">
-        <v>311.915453447808</v>
+        <v>673.609313351296</v>
       </c>
       <c r="S23">
-        <v>0.00197730020760011</v>
+        <v>0.003645851082755984</v>
       </c>
       <c r="T23">
-        <v>0.002083869436348809</v>
+        <v>0.003692862874799836</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H24">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I24">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J24">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N24">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O24">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P24">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q24">
-        <v>666.8206213804561</v>
+        <v>1349.00044099721</v>
       </c>
       <c r="R24">
-        <v>6001.385592424105</v>
+        <v>12141.00396897489</v>
       </c>
       <c r="S24">
-        <v>0.03804409447053604</v>
+        <v>0.06571211470609134</v>
       </c>
       <c r="T24">
-        <v>0.04009453162245871</v>
+        <v>0.06655944615249515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H25">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I25">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J25">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N25">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O25">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P25">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q25">
-        <v>194.706326911392</v>
+        <v>85.315794032252</v>
       </c>
       <c r="R25">
-        <v>1168.237961468352</v>
+        <v>511.894764193512</v>
       </c>
       <c r="S25">
-        <v>0.01110857351665756</v>
+        <v>0.004155877991814683</v>
       </c>
       <c r="T25">
-        <v>0.007804856589747926</v>
+        <v>0.002806310917956075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H26">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I26">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J26">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N26">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O26">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P26">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q26">
-        <v>674.9820025085362</v>
+        <v>2427.352999629687</v>
       </c>
       <c r="R26">
-        <v>6074.838022576824</v>
+        <v>21846.17699666719</v>
       </c>
       <c r="S26">
-        <v>0.03850972547337447</v>
+        <v>0.118240508969686</v>
       </c>
       <c r="T26">
-        <v>0.04058525842848536</v>
+        <v>0.1197651730584452</v>
       </c>
     </row>
   </sheetData>
